--- a/biology/Zoologie/Bachia_bresslaui/Bachia_bresslaui.xlsx
+++ b/biology/Zoologie/Bachia_bresslaui/Bachia_bresslaui.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bachia bresslaui est une espèce de sauriens de la famille des Gymnophthalmidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bachia bresslaui est une espèce de sauriens de la famille des Gymnophthalmidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre dans le district fédéral  et les États du Mato Grosso, du Mato Grosso do Sul, de São Paulo, de Bahia au Brésil et dans le département d'Amambay au Paraguay[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre dans le district fédéral  et les États du Mato Grosso, du Mato Grosso do Sul, de São Paulo, de Bahia au Brésil et dans le département d'Amambay au Paraguay.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur d'Ernst Ludwig Bresslau[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur d'Ernst Ludwig Bresslau.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Amaral, 1935 : Estudos sobre lacertilios neotropicos II. Novo genero e especie de lagarto do Brasil. Memórias do Instituto Butantan, vol. 9, p. 249-250.</t>
         </is>
